--- a/V1.6/data.xlsx
+++ b/V1.6/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\V1.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\edetail-tool\V1.6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B019DC-1BBF-49F1-BAFF-2412AEBE6CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EAA3F5-22DB-4A58-9DA3-23876E6A70B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Key Messages</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t xml:space="preserve">ProjectID_ProjectName </t>
+  </si>
+  <si>
+    <t>Slide_4,Slide_4,Slide_4,Slide_4</t>
   </si>
 </sst>
 </file>
@@ -488,20 +491,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="39.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="30.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="39.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -521,7 +526,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -538,42 +543,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
     </row>
   </sheetData>
